--- a/Sprint 9/Sprint_9 Burndown-Backlog.xlsx
+++ b/Sprint 9/Sprint_9 Burndown-Backlog.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -124,30 +124,6 @@
     <t>DIOGO DATA</t>
   </si>
   <si>
-    <t>Integração com o BD</t>
-  </si>
-  <si>
-    <t>Implementação gráfica da tela prontuário</t>
-  </si>
-  <si>
-    <t>Métodos de busca de prontuário</t>
-  </si>
-  <si>
-    <t>Métodos de alteração de prontuário</t>
-  </si>
-  <si>
-    <t>Integração com agendamento</t>
-  </si>
-  <si>
-    <t>Implementar parte gráfica da tela consulta de agendamentos</t>
-  </si>
-  <si>
-    <t>Implementar métodos de consultas de agendamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exibir consultas do data atual na tela </t>
-  </si>
-  <si>
     <t>Atualização da documentação</t>
   </si>
   <si>
@@ -160,9 +136,6 @@
     <t>Atualizar diagrama de classe</t>
   </si>
   <si>
-    <t>Métodos de salvar prontuário</t>
-  </si>
-  <si>
     <t>Reajuste de código</t>
   </si>
   <si>
@@ -172,165 +145,123 @@
     <t>Inserção de métodos e atributos</t>
   </si>
   <si>
-    <t>Melhoramento do Módulo Prontuário</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de cadastro de paciente</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de cadastro de funcionário</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de busca de paciente</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de busca de funcionário</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de remoção de paciente</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de remoção de funcionário</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de agendamento de consulta</t>
-  </si>
-  <si>
-    <t>Integração com a funcionalidade de busca de agendamentos</t>
-  </si>
-  <si>
-    <t>Melhoramento na codificação de busca de prontuário</t>
-  </si>
-  <si>
-    <t>Melhoramento codificação de alteração de prontuário</t>
-  </si>
-  <si>
     <t>Remoção de classes desnecessárias</t>
   </si>
   <si>
-    <t>Inserção de atributos na classe protuário</t>
-  </si>
-  <si>
-    <t>Melhoramento na integração com agendamento</t>
-  </si>
-  <si>
-    <t>Mudança nos métodos de acesso ao prontuário</t>
+    <t>Atualizar diagrama de entidade relacionamento</t>
   </si>
   <si>
     <t>Terça
-08/11/2016</t>
+15/11/2016</t>
+  </si>
+  <si>
+    <t>Divisão do sistema e suas funcionalidades para médico e atendente</t>
+  </si>
+  <si>
+    <t>Separação de funcionalidades para cada usuário</t>
+  </si>
+  <si>
+    <t>Método de reconhecimento de tipo de usuário</t>
+  </si>
+  <si>
+    <t>Implementação gráfica com funcionalidades para cada tipo de usuário</t>
+  </si>
+  <si>
+    <t>Restrição de acesso para cada tipo de usuário</t>
+  </si>
+  <si>
+    <t>Método de validação de acesso de usuário</t>
+  </si>
+  <si>
+    <t>Ajustes BD</t>
+  </si>
+  <si>
+    <t>Método de inserção de usuário padrão no banco de dados</t>
+  </si>
+  <si>
+    <t>Método de verificação de usuário padrão no banco</t>
+  </si>
+  <si>
+    <t>Implementação de usuário default no banco</t>
+  </si>
+  <si>
+    <t>Método de busca de agendamentos do dia atual</t>
+  </si>
+  <si>
+    <t>Criação de classe TelaMenuMedico</t>
+  </si>
+  <si>
+    <t>Criação de classe TelaMenuAtendente</t>
+  </si>
+  <si>
+    <t>Melhoramento no controle de horários de agendamento</t>
+  </si>
+  <si>
+    <t>Método de busca de agendamentos pelo cpf do funcionário</t>
+  </si>
+  <si>
+    <t>Melhoramento no código de busca e edição de prontuário</t>
   </si>
   <si>
     <t>Feito</t>
   </si>
   <si>
-    <t>Recriação do banco de dados</t>
+    <t>Método de busca de paciente por nome</t>
   </si>
   <si>
-    <t>Analise do banco de dados</t>
+    <t>Inclusão de JRadioButton e ButtonGroup na tela de cadastro de funcionário</t>
   </si>
   <si>
-    <t>Criação de diagramas do banco de dados</t>
+    <t>Inserção de tabela com todas as consultas do dia na TelaMenuAtendente</t>
   </si>
   <si>
-    <t>Criação de script para esquema do banco de dados</t>
+    <t>Inserção de tabela com todos os pacientes do dia na TelaMenuMedico</t>
   </si>
   <si>
-    <t>Integração com a funcionalidade de alteração de paciente</t>
+    <t>Inserção de JMenu Opções na TelaMenuAtendende</t>
   </si>
   <si>
-    <t>Integração com a funcionalidade de alteração de funcionário</t>
+    <t>Inserção de JMenu Opções na TelaMenuMédico</t>
   </si>
   <si>
-    <t>Criação de método cadastro de paciente</t>
+    <t>Inserção de JMenuItem Sair na TelaMenuAtendende</t>
   </si>
   <si>
-    <t>Criação de método consulta de paciente</t>
+    <t>Inserção de JMenuItem Sair na TelaMenuMedico</t>
   </si>
   <si>
-    <t>Criação de método alteração de paciente</t>
+    <t>Modificações e inclusões de funcionalidades</t>
   </si>
   <si>
-    <t>Criação de método cadastro de funcionário</t>
-  </si>
-  <si>
-    <t>Criação de método consulta de funcionario</t>
-  </si>
-  <si>
-    <t>Criação de método alteração de funcionário</t>
-  </si>
-  <si>
-    <t>Teste de inserção e consulta de funcionario</t>
-  </si>
-  <si>
-    <t>Teste de inserção e consulta de paciente</t>
-  </si>
-  <si>
-    <t>Tela de Informações do paciente</t>
-  </si>
-  <si>
-    <t>Implementação gráfica</t>
-  </si>
-  <si>
-    <t>Implementação de métodos e atributos</t>
-  </si>
-  <si>
-    <t>Integração com o sistema</t>
-  </si>
-  <si>
-    <t>Atualizar diagrama de entidade relacionamento</t>
-  </si>
-  <si>
-    <t>Criação de método cadastro de agenda</t>
-  </si>
-  <si>
-    <t>Criação de método consulta de agenda</t>
-  </si>
-  <si>
-    <t>Criação de método alteração de agenda</t>
-  </si>
-  <si>
-    <t>Teste de inserção e consulta de agenda</t>
-  </si>
-  <si>
-    <t>Criação de método para criação de prontuário de atendimento</t>
-  </si>
-  <si>
-    <t>Criação de método para consulta de prontuário de atendimento</t>
-  </si>
-  <si>
-    <t>Criação de método para alteração de prontuário de atendimento</t>
-  </si>
-  <si>
-    <t>Teste de inserção de consulta de prontuário</t>
+    <t>Implementação de método de encerramento do sistema</t>
   </si>
   <si>
     <t>Quarta
-09/11/2016</t>
+16/11/2016</t>
   </si>
   <si>
     <t>Quinta
-10/11/2016</t>
+17/11/2016</t>
   </si>
   <si>
     <t>Sexta
-11/11/2016</t>
+18/11/2016</t>
   </si>
   <si>
     <t>Sábado
-12/11/2016</t>
+19/11/2016</t>
   </si>
   <si>
     <t>Domingo
-13/11/2016</t>
+20/11/2016</t>
   </si>
   <si>
     <t>Segunda
-14/11/2016</t>
+21/11/2016</t>
   </si>
   <si>
     <t>Terça
-15/11/2016</t>
+22/11/2016</t>
   </si>
 </sst>
 </file>
@@ -527,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -653,11 +584,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,25 +691,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +704,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,6 +772,12 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,11 +793,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill>
@@ -1417,174 +1371,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -2794,35 +2580,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2834,31 +2620,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>46.869999999999976</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.011249999999976</c:v>
+                  <c:v>35.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.152499999999975</c:v>
+                  <c:v>30.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.293749999999978</c:v>
+                  <c:v>25.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.434999999999981</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.576249999999984</c:v>
+                  <c:v>15.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.717499999999987</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8587499999999899</c:v>
+                  <c:v>5.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.1054273576010019E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,35 +2713,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2967,31 +2753,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>46.869999999999976</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.869999999999976</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.369999999999976</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.369999999999976</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.869999999999976</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.369999999999976</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.369999999999976</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.369999999999976</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.369999999999976</c:v>
+                  <c:v>-2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,11 +2805,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="159041736"/>
-        <c:axId val="159076840"/>
+        <c:axId val="168458024"/>
+        <c:axId val="168553392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159041736"/>
+        <c:axId val="168458024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +2890,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159076840"/>
+        <c:crossAx val="168553392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +2898,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159076840"/>
+        <c:axId val="168553392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,6 +2949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3194,7 +2981,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159041736"/>
+        <c:crossAx val="168458024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3207,6 +2994,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3313,35 +3101,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3353,28 +3141,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23.119999999999987</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.22999999999999</c:v>
+                  <c:v>15.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.339999999999993</c:v>
+                  <c:v>13.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.449999999999994</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.559999999999995</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6699999999999964</c:v>
+                  <c:v>6.5625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7799999999999976</c:v>
+                  <c:v>4.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8899999999999992</c:v>
+                  <c:v>2.1875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3446,35 +3234,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3486,31 +3274,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23.119999999999987</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.119999999999987</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.619999999999987</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.619999999999987</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.119999999999987</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.619999999999987</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6199999999999868</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6199999999999868</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6199999999999868</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,11 +3326,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="159215744"/>
-        <c:axId val="159245504"/>
+        <c:axId val="168959536"/>
+        <c:axId val="168959920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159215744"/>
+        <c:axId val="168959536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,6 +3372,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3615,7 +3404,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159245504"/>
+        <c:crossAx val="168959920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3623,7 +3412,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159245504"/>
+        <c:axId val="168959920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,6 +3463,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3705,7 +3495,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159215744"/>
+        <c:crossAx val="168959536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3718,6 +3508,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3814,35 +3605,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3854,28 +3645,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15.75</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.78125</c:v>
+                  <c:v>10.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.8125</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.84375</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.875</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.90625</c:v>
+                  <c:v>4.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.96875</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3947,35 +3738,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3987,31 +3778,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15.75</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.75</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.75</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.75</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.75</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.75</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.75</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4039,11 +3830,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="159206272"/>
-        <c:axId val="159206656"/>
+        <c:axId val="169400360"/>
+        <c:axId val="169400744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159206272"/>
+        <c:axId val="169400360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,6 +3876,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4116,7 +3908,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159206656"/>
+        <c:crossAx val="169400744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4124,7 +3916,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159206656"/>
+        <c:axId val="169400744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4175,6 +3967,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4206,7 +3999,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159206272"/>
+        <c:crossAx val="169400360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4219,6 +4012,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4315,35 +4109,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4355,28 +4149,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4448,35 +4242,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-09/11/2016</c:v>
+16/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-10/11/2016</c:v>
+17/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-11/11/2016</c:v>
+18/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-12/11/2016</c:v>
+19/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-13/11/2016</c:v>
+20/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-14/11/2016</c:v>
+21/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-15/11/2016</c:v>
+22/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4488,31 +4282,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,11 +4334,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="159710056"/>
-        <c:axId val="160682072"/>
+        <c:axId val="167924888"/>
+        <c:axId val="167925280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159710056"/>
+        <c:axId val="167924888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4586,6 +4380,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4617,7 +4412,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160682072"/>
+        <c:crossAx val="167925280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4625,7 +4420,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160682072"/>
+        <c:axId val="167925280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,6 +4471,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4707,7 +4503,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159710056"/>
+        <c:crossAx val="167924888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4720,6 +4516,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4787,13 +4584,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>94965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>281025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>690600</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>99480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4822,13 +4619,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4857,13 +4654,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>566775</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>94710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5186,10 +4983,10 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="A1:H48"/>
+    <sheetView windowProtection="1" showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5206,16 +5003,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5240,27 +5037,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="38">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5284,9 +5081,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5299,8 +5096,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5322,11 +5119,11 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>44</v>
+      <c r="A4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>22</v>
@@ -5334,19 +5131,19 @@
       <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="40">
-        <f>SUM(D4:D6)</f>
-        <v>4</v>
+      <c r="E4" s="35">
+        <f>SUM(D4:D8)</f>
+        <v>8</v>
       </c>
       <c r="F4" s="24">
         <v>1</v>
       </c>
-      <c r="G4" s="40">
-        <f>SUM(F4:F6)</f>
-        <v>3.5</v>
+      <c r="G4" s="35">
+        <f>SUM(F4:F8)</f>
+        <v>8.25</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="29"/>
@@ -5370,23 +5167,23 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="24">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="36"/>
       <c r="F5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="41"/>
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="36"/>
       <c r="H5" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="3"/>
@@ -5410,23 +5207,23 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="26">
+      <c r="E6" s="36"/>
+      <c r="F6" s="24">
         <v>1.5</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="3"/>
@@ -5449,37 +5246,31 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="26" t="s">
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="24">
         <v>2</v>
       </c>
-      <c r="E7" s="40">
-        <f>SUM(D7:D11)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="27">
-        <v>2</v>
-      </c>
-      <c r="G7" s="40">
-        <f>SUM(F7:F11)</f>
-        <v>8.5</v>
-      </c>
+      <c r="G7" s="36"/>
       <c r="H7" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -5495,29 +5286,31 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
       <c r="B8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="26">
+        <v>3</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="26">
+        <v>3</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -5533,26 +5326,33 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="26" t="s">
+    <row r="9" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41"/>
+      <c r="D9" s="27">
+        <v>2.75</v>
+      </c>
+      <c r="E9" s="35">
+        <f>SUM(D9:D14)</f>
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3</v>
+      </c>
+      <c r="G9" s="35">
+        <f>SUM(F9:F14)</f>
+        <v>9.75</v>
+      </c>
       <c r="H9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="5"/>
+        <v>57</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -5572,26 +5372,25 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="19">
-        <v>3</v>
-      </c>
-      <c r="E10" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="36"/>
       <c r="F10" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="36"/>
       <c r="H10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>57</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -5612,23 +5411,23 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="19">
         <v>2</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="36"/>
       <c r="H11" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I11" s="5"/>
       <c r="K11" s="4"/>
@@ -5651,31 +5450,23 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="34"/>
       <c r="B12" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="40">
-        <f>SUM(D12:D41)</f>
-        <v>20.369999999999976</v>
-      </c>
+        <v>2.25</v>
+      </c>
+      <c r="E12" s="36"/>
       <c r="F12" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="G12" s="40">
-        <f>SUM(F12:F41)</f>
-        <v>18.75</v>
-      </c>
+        <v>2.25</v>
+      </c>
+      <c r="G12" s="36"/>
       <c r="H12" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I12" s="5"/>
       <c r="K12" s="4"/>
@@ -5698,23 +5489,23 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="19">
-        <v>2</v>
-      </c>
-      <c r="E13" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="36"/>
       <c r="F13" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="36"/>
       <c r="H13" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" s="4"/>
@@ -5737,23 +5528,23 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>24</v>
+      <c r="A14" s="39"/>
+      <c r="B14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="19">
-        <v>1</v>
-      </c>
-      <c r="E14" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="37"/>
       <c r="H14" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I14" s="5"/>
       <c r="K14" s="4"/>
@@ -5776,23 +5567,31 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" s="23" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="35">
+        <f>SUM(D15:D21)</f>
+        <v>10.5</v>
+      </c>
       <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="41"/>
+        <v>2.25</v>
+      </c>
+      <c r="G15" s="35">
+        <f>SUM(F15:F21)</f>
+        <v>11</v>
+      </c>
       <c r="H15" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I15" s="5"/>
       <c r="K15" s="4"/>
@@ -5815,23 +5614,23 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="23" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="36"/>
       <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="36"/>
       <c r="H16" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5"/>
       <c r="K16" s="4"/>
@@ -5854,23 +5653,23 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="23" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="41"/>
+        <v>2.25</v>
+      </c>
+      <c r="E17" s="36"/>
       <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="36"/>
       <c r="H17" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I17" s="5"/>
       <c r="K17" s="4"/>
@@ -5893,23 +5692,23 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="23" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="36"/>
       <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="36"/>
       <c r="H18" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I18" s="5"/>
       <c r="K18" s="4"/>
@@ -5932,23 +5731,23 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="23" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="41"/>
+        <v>1.25</v>
+      </c>
+      <c r="E19" s="36"/>
       <c r="F19" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="36"/>
       <c r="H19" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I19" s="5"/>
       <c r="K19" s="4"/>
@@ -5971,9 +5770,9 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>24</v>
@@ -5981,13 +5780,13 @@
       <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="41"/>
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="36"/>
       <c r="H20" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I20" s="5"/>
       <c r="K20" s="4"/>
@@ -6010,9 +5809,9 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="23" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>24</v>
@@ -6020,13 +5819,13 @@
       <c r="D21" s="19">
         <v>1</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="37"/>
       <c r="H21" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I21" s="5"/>
       <c r="K21" s="4"/>
@@ -6049,23 +5848,31 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="B22" s="23" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="35">
+        <f>SUM(D22:D29)</f>
+        <v>11</v>
+      </c>
       <c r="F22" s="19">
         <v>0.5</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="35">
+        <f>SUM(F22:F29)</f>
+        <v>12.25</v>
+      </c>
       <c r="H22" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="4"/>
@@ -6088,23 +5895,23 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="23" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="36"/>
       <c r="F23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="G23" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="36"/>
       <c r="H23" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23" s="4"/>
@@ -6127,23 +5934,23 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="23" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="19">
-        <v>1</v>
-      </c>
-      <c r="E24" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="36"/>
       <c r="F24" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="G24" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="36"/>
       <c r="H24" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="4"/>
@@ -6166,23 +5973,23 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="23" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="36"/>
       <c r="F25" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="36"/>
       <c r="H25" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25" s="4"/>
@@ -6205,23 +6012,23 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="23" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="19">
-        <v>1</v>
-      </c>
-      <c r="E26" s="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="36"/>
       <c r="F26" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="41"/>
+        <v>2.25</v>
+      </c>
+      <c r="G26" s="36"/>
       <c r="H26" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="4"/>
@@ -6244,23 +6051,23 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="23" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="36"/>
       <c r="F27" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="G27" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="36"/>
       <c r="H27" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27" s="4"/>
@@ -6283,23 +6090,23 @@
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="23" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E28" s="41"/>
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="36"/>
       <c r="F28" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="36"/>
       <c r="H28" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I28" s="5"/>
       <c r="K28" s="4"/>
@@ -6322,23 +6129,23 @@
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="23" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E29" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="37"/>
       <c r="F29" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="37"/>
       <c r="H29" s="30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I29" s="5"/>
       <c r="K29" s="4"/>
@@ -6361,25 +6168,34 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="23" t="s">
-        <v>89</v>
+      <c r="A30" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E30" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="35">
+        <f>SUM(D30:D33)</f>
+        <v>2</v>
+      </c>
       <c r="F30" s="19">
         <v>0.5</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="35">
+        <f>SUM(F30:F33)</f>
+        <v>2</v>
+      </c>
       <c r="H30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -6390,35 +6206,28 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="23" t="s">
-        <v>90</v>
+      <c r="A31" s="34"/>
+      <c r="B31" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E31" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="36"/>
       <c r="F31" s="19">
         <v>0.5</v>
       </c>
-      <c r="G31" s="41"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -6429,35 +6238,28 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
     </row>
     <row r="32" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D32" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E32" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="36"/>
       <c r="F32" s="19">
         <v>0.5</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -6468,35 +6270,28 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-    </row>
-    <row r="33" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E33" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="37"/>
       <c r="F33" s="19">
         <v>0.5</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -6507,35 +6302,17 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-    </row>
-    <row r="34" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="5"/>
+    </row>
+    <row r="34" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -6546,35 +6323,17 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-    </row>
-    <row r="35" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="5"/>
+    </row>
+    <row r="35" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -6585,35 +6344,17 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-    </row>
-    <row r="36" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="5"/>
+    </row>
+    <row r="36" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -6624,35 +6365,16 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-    </row>
-    <row r="37" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="5"/>
+    </row>
+    <row r="37" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -6663,35 +6385,16 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-    </row>
-    <row r="38" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="5"/>
+    </row>
+    <row r="38" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -6702,35 +6405,16 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-    </row>
-    <row r="39" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="5"/>
+    </row>
+    <row r="39" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -6741,35 +6425,18 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-    </row>
-    <row r="40" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="5"/>
+    </row>
+    <row r="40" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -6780,35 +6447,18 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-    </row>
-    <row r="41" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0.33</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="5"/>
+    </row>
+    <row r="41" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -6819,43 +6469,18 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="E42" s="40">
-        <f>SUM(D42:D44)</f>
-        <v>4.5</v>
-      </c>
-      <c r="F42" s="19">
-        <v>2</v>
-      </c>
-      <c r="G42" s="40">
-        <f>SUM(F42:F44)</f>
-        <v>5</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="5"/>
+    </row>
+    <row r="42" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -6866,423 +6491,19 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="19">
-        <v>2</v>
-      </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="19">
-        <v>2</v>
-      </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="19">
-        <v>1</v>
-      </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="19">
-        <v>1</v>
-      </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-    </row>
-    <row r="45" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="19">
-        <v>2</v>
-      </c>
-      <c r="E45" s="40">
-        <f>SUM(D45:D48)</f>
-        <v>8</v>
-      </c>
-      <c r="F45" s="19">
-        <v>2</v>
-      </c>
-      <c r="G45" s="40">
-        <f>SUM(F45:F48)</f>
-        <v>9</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="19">
-        <v>2</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="19">
-        <v>3</v>
-      </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="19">
-        <v>3</v>
-      </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="19">
-        <v>3</v>
-      </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="19">
-        <v>1</v>
-      </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-    </row>
-    <row r="53" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-    </row>
-    <row r="54" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-    </row>
-    <row r="56" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-    </row>
-    <row r="57" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G30:G33"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -7290,27 +6511,20 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A12:A41"/>
-    <mergeCell ref="E12:E41"/>
-    <mergeCell ref="G12:G41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="G22:G29"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I6">
-    <cfRule type="expression" dxfId="127" priority="2">
+  <conditionalFormatting sqref="I1:I8">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I6">
-    <cfRule type="notContainsText" dxfId="126" priority="3" operator="notContains" text="676766676ppppp"/>
+  <conditionalFormatting sqref="I1:I8">
+    <cfRule type="notContainsText" dxfId="114" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7426,28 +6640,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>14</v>
@@ -7490,47 +6704,47 @@
       </c>
       <c r="B5" s="11">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>46.869999999999976</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>41.011249999999976</v>
+        <v>35.875</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>35.152499999999975</v>
+        <v>30.75</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>29.293749999999978</v>
+        <v>25.625</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>23.434999999999981</v>
+        <v>20.5</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>17.576249999999984</v>
+        <v>15.375</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>11.717499999999987</v>
+        <v>10.25</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>5.8587499999999899</v>
+        <v>5.125</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12">
         <f>SUM(C5:J5)</f>
-        <v>164.04499999999985</v>
+        <v>143.5</v>
       </c>
       <c r="L5" s="12">
         <f>K5/A$3</f>
-        <v>20.505624999999981</v>
+        <v>17.9375</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -7546,47 +6760,47 @@
       </c>
       <c r="B6" s="11">
         <f>B5</f>
-        <v>46.869999999999976</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>45.869999999999976</v>
+        <v>36.5</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="2"/>
-        <v>41.369999999999976</v>
+        <v>31</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="2"/>
-        <v>36.369999999999976</v>
+        <v>25.5</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>30.869999999999976</v>
+        <v>18.5</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="2"/>
-        <v>29.369999999999976</v>
+        <v>13.75</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="2"/>
-        <v>23.369999999999976</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>20.369999999999976</v>
+        <v>2.25</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
-        <v>19.369999999999976</v>
+        <v>-2.25</v>
       </c>
       <c r="K6" s="12">
         <f>SUM(C6:J6)</f>
-        <v>246.95999999999981</v>
+        <v>132.75</v>
       </c>
       <c r="L6" s="12">
         <f>K6/A$3</f>
-        <v>30.869999999999976</v>
+        <v>16.59375</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -7650,47 +6864,47 @@
       </c>
       <c r="B9" s="15">
         <f>B5/A3</f>
-        <v>5.858749999999997</v>
+        <v>5.125</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>43.25</v>
       </c>
       <c r="L9" s="15">
         <f>K9/A$3</f>
-        <v>3.4375</v>
+        <v>5.40625</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -7706,40 +6920,47 @@
       </c>
       <c r="B10" s="17">
         <f>Diogo!B9</f>
-        <v>2.8899999999999983</v>
+        <v>2.1875</v>
       </c>
       <c r="C10" s="12">
         <f>Diogo!C9</f>
+        <v>1.75</v>
+      </c>
+      <c r="D10" s="12">
+        <f>Diogo!D9</f>
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="12">
+        <f>Diogo!E9</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <f>Diogo!F9</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <f>Diogo!G9</f>
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="H10" s="12">
+        <f>Diogo!H9</f>
         <v>2.5</v>
       </c>
-      <c r="E10" s="12">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="12">
-        <v>3</v>
-      </c>
       <c r="I10" s="12">
-        <v>3</v>
+        <f>Diogo!I9</f>
+        <v>2.25</v>
       </c>
       <c r="J10" s="12">
-        <v>0</v>
+        <f>Diogo!J9</f>
+        <v>1</v>
       </c>
       <c r="K10" s="12">
         <f>SUM(C10:J10)</f>
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="L10" s="12">
         <f>K10/A$3</f>
-        <v>2.3125</v>
+        <v>2.25</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -7755,40 +6976,47 @@
       </c>
       <c r="B11" s="18">
         <f>Ivo!B9</f>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="C11" s="12">
         <f>Ivo!C9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="12">
+        <f>Ivo!D9</f>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="12">
+        <f>Ivo!E9</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="12">
+        <f>Ivo!F9</f>
         <v>2</v>
       </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
       <c r="G11" s="12">
-        <v>0</v>
+        <f>Ivo!G9</f>
+        <v>2.25</v>
       </c>
       <c r="H11" s="12">
-        <v>3</v>
+        <f>Ivo!H9</f>
+        <v>2</v>
       </c>
       <c r="I11" s="12">
-        <v>0</v>
+        <f>Ivo!I9</f>
+        <v>2</v>
       </c>
       <c r="J11" s="12">
-        <v>1</v>
+        <f>Ivo!J9</f>
+        <v>2.5</v>
       </c>
       <c r="K11" s="12">
         <f>SUM(C11:J11)</f>
-        <v>9</v>
+        <v>12.25</v>
       </c>
       <c r="L11" s="12">
         <f>K11/A$3</f>
-        <v>1.125</v>
+        <v>1.53125</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -7804,41 +7032,47 @@
       </c>
       <c r="B12" s="17">
         <f>Izaquiel!B9</f>
-        <v>1.96875</v>
+        <v>1.5625</v>
       </c>
       <c r="C12" s="12">
         <f>Izaquiel!C9</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <f>Izaquiel!D9</f>
+        <v>1.5</v>
       </c>
       <c r="E12" s="12">
         <f>Izaquiel!E9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="12">
-        <v>0</v>
+        <f>Izaquiel!F9</f>
+        <v>2</v>
       </c>
       <c r="G12" s="12">
-        <v>0</v>
+        <f>Izaquiel!G9</f>
+        <v>1.5</v>
       </c>
       <c r="H12" s="12">
-        <v>0</v>
+        <f>Izaquiel!H9</f>
+        <v>1.75</v>
       </c>
       <c r="I12" s="12">
-        <v>0</v>
+        <f>Izaquiel!I9</f>
+        <v>1</v>
       </c>
       <c r="J12" s="12">
-        <v>0</v>
+        <f>Izaquiel!J9</f>
+        <v>1</v>
       </c>
       <c r="K12" s="12">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L12" s="12">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -7870,479 +7104,419 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:C10 B12">
-    <cfRule type="expression" dxfId="125" priority="36">
+  <conditionalFormatting sqref="B12 B10:J10">
+    <cfRule type="expression" dxfId="113" priority="36">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="124" priority="37" operator="equal">
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="cellIs" dxfId="112" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="123" priority="38" operator="notEqual">
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="cellIs" dxfId="111" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B12">
-    <cfRule type="notContainsText" dxfId="122" priority="40" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="110" priority="40" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="121" priority="41">
+    <cfRule type="expression" dxfId="109" priority="41">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="120" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="119" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="43" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="118" priority="44">
+    <cfRule type="expression" dxfId="106" priority="44">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="117" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="116" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="46" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="115" priority="47">
+    <cfRule type="expression" dxfId="103" priority="47">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="114" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="113" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="49" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="112" priority="50">
+    <cfRule type="expression" dxfId="100" priority="50">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="111" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="110" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="52" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="109" priority="53">
+    <cfRule type="expression" dxfId="97" priority="53">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="107" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="106" priority="56">
+    <cfRule type="expression" dxfId="94" priority="56">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="105" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="104" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="103" priority="59">
+    <cfRule type="expression" dxfId="91" priority="59">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="102" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="101" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="100" priority="62">
+    <cfRule type="expression" dxfId="88" priority="62">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="99" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="98" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="97" priority="65">
+    <cfRule type="expression" dxfId="85" priority="65">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="95" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="67" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="94" priority="68">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="93" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="92" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="70" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="91" priority="71">
+    <cfRule type="expression" dxfId="79" priority="71">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="90" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="89" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="88" priority="74">
+    <cfRule type="expression" dxfId="76" priority="74">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="87" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="86" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="85" priority="77">
+    <cfRule type="expression" dxfId="73" priority="77">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="82" priority="80">
+    <cfRule type="expression" dxfId="70" priority="80">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="82" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="79" priority="83">
+    <cfRule type="expression" dxfId="67" priority="83">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="77" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="85" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="76" priority="86">
+    <cfRule type="expression" dxfId="64" priority="86">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="75" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="74" priority="88" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="88" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="73" priority="89">
+    <cfRule type="expression" dxfId="61" priority="89">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="91" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="70" priority="92">
+    <cfRule type="expression" dxfId="58" priority="92">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="68" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="94" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="67" priority="95">
+    <cfRule type="expression" dxfId="55" priority="95">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="66" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="65" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="97" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="64" priority="98">
+    <cfRule type="expression" dxfId="52" priority="98">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="100" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="61" priority="143">
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="expression" dxfId="49" priority="143">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="60" priority="144" operator="equal">
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="cellIs" dxfId="48" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="59" priority="145" operator="notEqual">
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="cellIs" dxfId="47" priority="145" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="58" priority="146">
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="expression" dxfId="46" priority="146">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="57" priority="147" operator="equal">
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="cellIs" dxfId="45" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="56" priority="148" operator="notEqual">
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="cellIs" dxfId="44" priority="148" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J10">
-    <cfRule type="expression" dxfId="55" priority="26">
-      <formula>LEN(TRIM(I10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J10">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="43" priority="16">
+      <formula>LEN(TRIM(B11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="notContainsText" dxfId="42" priority="17" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="41" priority="10">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J10">
-    <cfRule type="cellIs" dxfId="53" priority="28" operator="notEqual">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="52" priority="20">
-      <formula>LEN(TRIM(D11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="38" priority="13">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="notEqual">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="49" priority="23">
-      <formula>LEN(TRIM(D11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="expression" dxfId="35" priority="4">
+      <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="notEqual">
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="46" priority="16">
-      <formula>LEN(TRIM(B11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="notContainsText" dxfId="45" priority="17" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="44" priority="10">
-      <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="expression" dxfId="32" priority="7">
+      <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:J12">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="41" priority="13">
-      <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="38" priority="4">
-      <formula>LEN(TRIM(D12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="35" priority="7">
-      <formula>LEN(TRIM(D12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:H10">
-    <cfRule type="expression" dxfId="32" priority="1">
-      <formula>LEN(TRIM(D10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:H10">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:H10">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8357,17 +7531,17 @@
   <sheetPr>
     <tabColor rgb="FFC9DAF8"/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:E16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.7109375"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="10" width="12.7109375"/>
     <col min="11" max="11" width="8.28515625"/>
     <col min="12" max="12" width="8"/>
@@ -8454,28 +7628,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>14</v>
@@ -8518,35 +7692,35 @@
       </c>
       <c r="B5" s="11">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
-        <v>23.119999999999987</v>
+        <v>17.5</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>20.22999999999999</v>
+        <v>15.3125</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>17.339999999999993</v>
+        <v>13.125</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>14.449999999999994</v>
+        <v>10.9375</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>11.559999999999995</v>
+        <v>8.75</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>8.6699999999999964</v>
+        <v>6.5625</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>5.7799999999999976</v>
+        <v>4.375</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>2.8899999999999992</v>
+        <v>2.1875</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
@@ -8554,11 +7728,11 @@
       </c>
       <c r="K5" s="12">
         <f>SUM(C5:J5)</f>
-        <v>80.919999999999973</v>
+        <v>61.25</v>
       </c>
       <c r="L5" s="12">
         <f>K5/A$3</f>
-        <v>10.114999999999997</v>
+        <v>7.65625</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -8574,47 +7748,47 @@
       </c>
       <c r="B6" s="11">
         <f>B5</f>
-        <v>23.119999999999987</v>
+        <v>17.5</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>22.119999999999987</v>
+        <v>15.75</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="2"/>
-        <v>19.619999999999987</v>
+        <v>12.25</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="2"/>
-        <v>14.619999999999987</v>
+        <v>9.25</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>12.119999999999987</v>
+        <v>6.25</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="2"/>
-        <v>10.619999999999987</v>
+        <v>5.25</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="2"/>
-        <v>7.6199999999999868</v>
+        <v>2.75</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>4.6199999999999868</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
-        <v>1.6199999999999868</v>
+        <v>-0.5</v>
       </c>
       <c r="K6" s="12">
         <f>SUM(C6:J6)</f>
-        <v>92.959999999999908</v>
+        <v>51.5</v>
       </c>
       <c r="L6" s="12">
         <f>K6/A$3</f>
-        <v>11.619999999999989</v>
+        <v>6.4375</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -8678,47 +7852,47 @@
       </c>
       <c r="B9" s="15">
         <f>B5/A3</f>
-        <v>2.8899999999999983</v>
+        <v>2.1875</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>SUM(D10:D20)</f>
+        <v>3.5</v>
       </c>
       <c r="E9" s="15">
-        <f>SUM(E10:E27)</f>
-        <v>5</v>
+        <f>SUM(E10:E20)</f>
+        <v>3</v>
       </c>
       <c r="F9" s="15">
         <f>SUM(F10:F19)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="15">
+        <f>SUM(G10:G20)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <f>SUM(H10:H20)</f>
         <v>2.5</v>
       </c>
-      <c r="G9" s="15">
-        <f>SUM(G10:G27)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H9" s="15">
-        <f>SUM(H10:H27)</f>
-        <v>3</v>
-      </c>
       <c r="I9" s="15">
-        <f>SUM(I10:I27)</f>
-        <v>3</v>
+        <f>SUM(I10:I20)</f>
+        <v>2.25</v>
       </c>
       <c r="J9" s="15">
-        <f>SUM(J10:J33)</f>
-        <v>3</v>
+        <f>SUM(J10:J20)</f>
+        <v>1</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>0.4375</v>
+        <v>0.40625</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -8730,7 +7904,7 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="12">
@@ -8775,14 +7949,14 @@
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -8804,11 +7978,11 @@
       </c>
       <c r="K11" s="12">
         <f>SUM(C11:J11)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L11" s="12">
         <f>K11/A$3</f>
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="53"/>
@@ -8820,7 +7994,7 @@
     </row>
     <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="12">
@@ -8865,7 +8039,7 @@
     </row>
     <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="12">
@@ -8910,7 +8084,7 @@
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B14" s="52"/>
       <c r="C14" s="12">
@@ -8920,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="12">
         <v>0</v>
@@ -8939,11 +8113,11 @@
       </c>
       <c r="K14" s="12">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="12">
         <f t="shared" si="5"/>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="31"/>
@@ -8955,7 +8129,7 @@
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="12">
@@ -8965,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="12">
         <v>0</v>
@@ -8984,11 +8158,11 @@
       </c>
       <c r="K15" s="12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" s="12">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="31"/>
@@ -9000,7 +8174,7 @@
     </row>
     <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="12">
@@ -9010,13 +8184,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="12">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
       <c r="G16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12">
         <v>0</v>
@@ -9029,11 +8203,11 @@
       </c>
       <c r="K16" s="12">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="L16" s="12">
         <f t="shared" si="5"/>
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="31"/>
@@ -9045,7 +8219,7 @@
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="12">
@@ -9058,13 +8232,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <v>0</v>
       </c>
       <c r="H17" s="12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -9074,11 +8248,11 @@
       </c>
       <c r="K17" s="12">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L17" s="12">
         <f t="shared" si="5"/>
-        <v>0.1875</v>
+        <v>0.3125</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="31"/>
@@ -9090,7 +8264,7 @@
     </row>
     <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="12">
@@ -9103,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
@@ -9112,18 +8286,18 @@
         <v>0</v>
       </c>
       <c r="I18" s="12">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="L18" s="12">
         <f t="shared" si="5"/>
-        <v>6.25E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="31"/>
@@ -9135,7 +8309,7 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="52"/>
       <c r="C19" s="12">
@@ -9148,19 +8322,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>0.5</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="4"/>
@@ -9180,7 +8354,7 @@
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="12">
@@ -9196,23 +8370,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
         <v>0.5</v>
       </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
       <c r="K20" s="12">
-        <f t="shared" ref="K20:K24" si="6">SUM(C20:J20)</f>
+        <f t="shared" ref="K20" si="6">SUM(C20:J20)</f>
         <v>0.5</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" ref="L20:L24" si="7">K20/A$3</f>
+        <f t="shared" ref="L20" si="7">K20/A$3</f>
         <v>6.25E-2</v>
       </c>
       <c r="M20" s="31"/>
@@ -9221,524 +8395,23 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="12">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="12">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="12">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="12">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
-        <v>2</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" ref="K25:K27" si="8">SUM(C25:J25)</f>
-        <v>2</v>
-      </c>
-      <c r="L25" s="12">
-        <f t="shared" ref="L25:L27" si="9">K25/A$3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="12">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>2</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="12">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>1</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="12">
-        <f t="shared" si="9"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" ref="K28:K29" si="10">SUM(C28:J28)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="12">
-        <f t="shared" ref="L28:L29" si="11">K28/A$3</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="12">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="12">
-        <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="12">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" ref="K30:K33" si="12">SUM(C30:J30)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="12">
-        <f t="shared" ref="L30:L33" si="13">K30/A$3</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="12">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="12">
-        <f t="shared" si="13"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="12">
-        <v>0</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" si="13"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="12">
-        <v>0</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="12">
-        <f t="shared" si="13"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
+  <mergeCells count="29">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
@@ -9755,48 +8428,28 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10:O19 N21:O22 M20 C10:L99">
+  <conditionalFormatting sqref="N10:O19 M20 C10:L86">
     <cfRule type="expression" dxfId="29" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L99">
+  <conditionalFormatting sqref="C10:L86">
     <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L99">
+  <conditionalFormatting sqref="C10:L86">
     <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:B99">
+  <conditionalFormatting sqref="A23:B86">
     <cfRule type="expression" dxfId="26" priority="5">
-      <formula>LEN(TRIM(A36))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:B99 N10:O19 N21:O22 M20">
+      <formula>LEN(TRIM(A23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B86 N10:O19 M20">
     <cfRule type="notContainsText" dxfId="25" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9810,9 +8463,9 @@
   <sheetPr>
     <tabColor rgb="FFC9DAF8"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
@@ -9907,28 +8560,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>14</v>
@@ -9971,35 +8624,35 @@
       </c>
       <c r="B5" s="11">
         <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
-        <v>15.75</v>
+        <v>12.5</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>13.78125</v>
+        <v>10.9375</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>11.8125</v>
+        <v>9.375</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>9.84375</v>
+        <v>7.8125</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>7.875</v>
+        <v>6.25</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>5.90625</v>
+        <v>4.6875</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>3.9375</v>
+        <v>3.125</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>1.96875</v>
+        <v>1.5625</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
@@ -10007,11 +8660,11 @@
       </c>
       <c r="K5" s="12">
         <f>SUM(C5:J5)</f>
-        <v>55.125</v>
+        <v>43.75</v>
       </c>
       <c r="L5" s="12">
         <f>K5/A$3</f>
-        <v>6.890625</v>
+        <v>5.46875</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -10027,47 +8680,47 @@
       </c>
       <c r="B6" s="11">
         <f>B5</f>
-        <v>15.75</v>
+        <v>12.5</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>15.75</v>
+        <v>10.25</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>8.75</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>6.75</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>4.75</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>3.25</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>-0.5</v>
       </c>
       <c r="K6" s="12">
         <f>SUM(C6:J6)</f>
-        <v>126</v>
+        <v>35.25</v>
       </c>
       <c r="L6" s="12">
         <f>K6/A$3</f>
-        <v>15.75</v>
+        <v>4.40625</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -10131,47 +8784,47 @@
       </c>
       <c r="B9" s="15">
         <f>B5/A3</f>
-        <v>1.96875</v>
+        <v>1.5625</v>
       </c>
       <c r="C9" s="15">
-        <f>SUM(C10:C32)</f>
-        <v>0</v>
+        <f>SUM(C10:C35)</f>
+        <v>2.25</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" ref="D9:L9" si="3">SUM(D10:D32)</f>
-        <v>0</v>
+        <f t="shared" ref="D9:L9" si="3">SUM(D10:D35)</f>
+        <v>1.5</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -10182,12 +8835,12 @@
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="62"/>
+      <c r="A10" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="64"/>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -10212,11 +8865,11 @@
       </c>
       <c r="K10" s="12">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L10" s="12">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -10227,15 +8880,15 @@
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="62"/>
+      <c r="A11" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="64"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -10257,11 +8910,11 @@
       </c>
       <c r="K11" s="12">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L11" s="12">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -10272,10 +8925,10 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="64"/>
+      <c r="A12" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="66"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -10283,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
@@ -10302,11 +8955,11 @@
       </c>
       <c r="K12" s="12">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="12">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -10317,10 +8970,10 @@
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="64"/>
+      <c r="A13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="66"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -10331,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -10347,18 +9000,18 @@
       </c>
       <c r="K13" s="12">
         <f>SUM(C13:J13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="12">
         <f>K13/A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="62"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -10372,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
@@ -10384,19 +9037,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" ref="K14:K17" si="4">SUM(C14:J14)</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K20" si="4">SUM(C14:J14)</f>
+        <v>1.5</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" ref="L14:L17" si="5">K14/A$3</f>
-        <v>0</v>
+        <f t="shared" ref="L14:L20" si="5">K14/A$3</f>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="62"/>
       <c r="C15" s="12">
         <v>0</v>
       </c>
@@ -10413,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
@@ -10423,18 +9076,18 @@
       </c>
       <c r="K15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L15" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="62"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -10451,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
@@ -10461,18 +9114,18 @@
       </c>
       <c r="K16" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="12">
         <v>0</v>
       </c>
@@ -10492,24 +9145,147 @@
         <v>0</v>
       </c>
       <c r="I17" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="12">
         <v>0</v>
       </c>
       <c r="K17" s="12">
+        <f t="shared" ref="K17:K19" si="6">SUM(C17:J17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L19" si="7">K17/A$3</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
@@ -10525,36 +9301,28 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C18:L98 K10:L10 A14:A17">
+  <conditionalFormatting sqref="C21:L101 K10:L10 A14:A19">
     <cfRule type="expression" dxfId="24" priority="17">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:L98 K10:L10">
+  <conditionalFormatting sqref="C21:L101 K10:L10">
     <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:L98 K10:L10">
+  <conditionalFormatting sqref="C21:L101 K10:L10">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B98">
+  <conditionalFormatting sqref="A21:B101">
     <cfRule type="expression" dxfId="21" priority="20">
-      <formula>LEN(TRIM(A18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B98 A14:A17">
+      <formula>LEN(TRIM(A21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B101 A14:A19">
     <cfRule type="notContainsText" dxfId="20" priority="21" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J10">
@@ -10580,17 +9348,17 @@
   <conditionalFormatting sqref="A10:B10">
     <cfRule type="notContainsText" dxfId="15" priority="7" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:L17">
+  <conditionalFormatting sqref="C11:L20">
     <cfRule type="expression" dxfId="14" priority="1">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:L17">
+  <conditionalFormatting sqref="C11:L20">
     <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:L17">
+  <conditionalFormatting sqref="C11:L20">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -10604,8 +9372,8 @@
     <cfRule type="notContainsText" dxfId="10" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10614,10 +9382,10 @@
   <sheetPr>
     <tabColor rgb="FFA4C2F4"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
@@ -10711,28 +9479,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>14</v>
@@ -10775,35 +9543,35 @@
       </c>
       <c r="B5" s="11">
         <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>7</v>
+        <v>9.625</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.875</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.125</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
@@ -10811,11 +9579,11 @@
       </c>
       <c r="K5" s="12">
         <f>SUM(C5:J5)</f>
-        <v>28</v>
+        <v>38.5</v>
       </c>
       <c r="L5" s="12">
         <f>K5/A$3</f>
-        <v>3.5</v>
+        <v>4.8125</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -10831,47 +9599,47 @@
       </c>
       <c r="B6" s="11">
         <f>B5</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="K6" s="12">
         <f>SUM(C6:J6)</f>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L6" s="12">
         <f>K6/A$3</f>
-        <v>3.125</v>
+        <v>5.75</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -10935,47 +9703,47 @@
       </c>
       <c r="B9" s="15">
         <f>B5/A3</f>
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
-        <v>0</v>
+        <f t="shared" ref="C9:L9" si="3">SUM(C10:C34)</f>
+        <v>0.5</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>12.25</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>1.125</v>
+        <v>1.53125</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -10986,15 +9754,15 @@
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="62"/>
+      <c r="A10" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="64"/>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -11016,11 +9784,11 @@
       </c>
       <c r="K10" s="12">
         <f>SUM(C10:J10)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="12">
         <f>K10/A$3</f>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -11031,21 +9799,21 @@
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="62"/>
+      <c r="A11" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="64"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -11061,11 +9829,11 @@
       </c>
       <c r="K11" s="12">
         <f>SUM(C11:J11)</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="12">
         <f>K11/A$3</f>
-        <v>0.375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -11076,10 +9844,10 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="62"/>
+      <c r="A12" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="64"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -11087,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
@@ -11096,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
@@ -11106,11 +9874,11 @@
       </c>
       <c r="K12" s="12">
         <f>SUM(C12:J12)</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="12">
         <f>K12/A$3</f>
-        <v>0.375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -11120,11 +9888,11 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="60"/>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="58"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -11135,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -11147,23 +9915,208 @@
         <v>0</v>
       </c>
       <c r="J13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f>SUM(C13:J13)</f>
-        <v>1</v>
+        <f t="shared" ref="K13:K16" si="4">SUM(C13:J13)</f>
+        <v>2</v>
       </c>
       <c r="L13" s="12">
-        <f>K13/A$3</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <f t="shared" ref="L13:L16" si="5">K13/A$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="5"/>
+        <v>0.28125</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="12">
+        <f>SUM(C17:J17)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="12">
+        <f>K17/A$3</f>
+        <v>0.3125</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -11178,60 +10131,55 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C18:L96">
+  <conditionalFormatting sqref="C22:L100 A14:A17 A10">
     <cfRule type="expression" dxfId="9" priority="19">
-      <formula>LEN(TRIM(C18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:L96">
+      <formula>LEN(TRIM(A10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:L100">
     <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:L96">
+  <conditionalFormatting sqref="C22:L100">
     <cfRule type="cellIs" dxfId="7" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B96">
+  <conditionalFormatting sqref="A22:B100">
     <cfRule type="expression" dxfId="6" priority="22">
-      <formula>LEN(TRIM(A18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B96">
+      <formula>LEN(TRIM(A22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:B100 A14:A17 A10">
     <cfRule type="notContainsText" dxfId="5" priority="23" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13">
+  <conditionalFormatting sqref="C10:L17">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13">
+  <conditionalFormatting sqref="C10:L17">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13">
+  <conditionalFormatting sqref="C10:L17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13 A10:B12">
+  <conditionalFormatting sqref="A11:B12">
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>LEN(TRIM(A10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13 A13 A10:B12">
+      <formula>LEN(TRIM(A11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17 A11:B12">
     <cfRule type="notContainsText" dxfId="0" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>